--- a/docs/cda-logical-model/StructureDefinition-Supply.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-Supply.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="217">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:52:41+01:00</t>
+    <t>2023-02-07T19:43:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -92,7 +92,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -237,6 +237,10 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base for all types and resources</t>
@@ -384,7 +388,7 @@
     <t>Supply.product.id</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -1013,42 +1017,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.29296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.29296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.78515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.78515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="183.7578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="186.20703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.29296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.98046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="45.78515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1192,13 +1196,13 @@
         <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1249,13 +1253,13 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>72</v>
@@ -1264,15 +1268,15 @@
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1295,18 +1299,18 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S3" t="s" s="2">
         <v>72</v>
@@ -1324,11 +1328,11 @@
         <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="s" s="2">
         <v>72</v>
@@ -1346,7 +1350,7 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>73</v>
@@ -1366,10 +1370,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1392,7 +1396,7 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1445,7 +1449,7 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
@@ -1465,10 +1469,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1476,10 +1480,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
@@ -1491,7 +1495,7 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1544,13 +1548,13 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
@@ -1564,10 +1568,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1575,7 +1579,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1590,7 +1594,7 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1643,10 +1647,10 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
@@ -1663,10 +1667,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1674,10 +1678,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1689,11 +1693,11 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1744,13 +1748,13 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
@@ -1764,10 +1768,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1775,10 +1779,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
@@ -1790,7 +1794,7 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1843,13 +1847,13 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
@@ -1863,10 +1867,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1874,7 +1878,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>73</v>
@@ -1889,7 +1893,7 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1918,11 +1922,11 @@
         <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>72</v>
@@ -1940,10 +1944,10 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>73</v>
@@ -1960,10 +1964,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1971,7 +1975,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>73</v>
@@ -1986,7 +1990,7 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2039,10 +2043,10 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>73</v>
@@ -2059,10 +2063,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2070,7 +2074,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>73</v>
@@ -2085,7 +2089,7 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2114,32 +2118,32 @@
         <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AA11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>73</v>
@@ -2156,10 +2160,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2167,10 +2171,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>72</v>
@@ -2182,7 +2186,7 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2235,13 +2239,13 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>72</v>
@@ -2255,10 +2259,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2266,10 +2270,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>72</v>
@@ -2281,7 +2285,7 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2310,11 +2314,11 @@
         <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>72</v>
@@ -2332,13 +2336,13 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>72</v>
@@ -2352,10 +2356,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2363,7 +2367,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
@@ -2378,7 +2382,7 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2431,10 +2435,10 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>73</v>
@@ -2451,10 +2455,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2462,7 +2466,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -2477,7 +2481,7 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2530,10 +2534,10 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
@@ -2550,10 +2554,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2561,7 +2565,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>73</v>
@@ -2576,7 +2580,7 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2629,10 +2633,10 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>73</v>
@@ -2649,10 +2653,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2660,7 +2664,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -2675,7 +2679,7 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2728,10 +2732,10 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
@@ -2748,10 +2752,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2759,7 +2763,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -2774,7 +2778,7 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2827,10 +2831,10 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
@@ -2839,7 +2843,7 @@
         <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>72</v>
@@ -2847,10 +2851,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2858,7 +2862,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -2873,13 +2877,13 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2930,10 +2934,10 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
@@ -2945,26 +2949,26 @@
         <v>72</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>72</v>
@@ -2976,16 +2980,16 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3023,42 +3027,42 @@
         <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3081,18 +3085,18 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>72</v>
@@ -3110,11 +3114,11 @@
         <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>72</v>
@@ -3132,7 +3136,7 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -3152,10 +3156,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3178,7 +3182,7 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3231,7 +3235,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3251,10 +3255,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3262,7 +3266,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>73</v>
@@ -3277,7 +3281,7 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3330,10 +3334,10 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>73</v>
@@ -3342,7 +3346,7 @@
         <v>72</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>72</v>
@@ -3350,10 +3354,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3361,7 +3365,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>73</v>
@@ -3376,13 +3380,13 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3433,10 +3437,10 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>73</v>
@@ -3448,26 +3452,26 @@
         <v>72</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -3479,16 +3483,16 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3526,42 +3530,42 @@
         <v>72</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3584,18 +3588,18 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>72</v>
@@ -3613,11 +3617,11 @@
         <v>72</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>72</v>
@@ -3635,7 +3639,7 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -3655,10 +3659,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3681,18 +3685,18 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>72</v>
@@ -3710,11 +3714,11 @@
         <v>72</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>72</v>
@@ -3732,7 +3736,7 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -3752,10 +3756,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3763,7 +3767,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>73</v>
@@ -3778,7 +3782,7 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -3807,32 +3811,32 @@
         <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>147</v>
-      </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>73</v>
@@ -3849,10 +3853,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3875,7 +3879,7 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -3928,7 +3932,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -3948,10 +3952,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3959,10 +3963,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>72</v>
@@ -3974,7 +3978,7 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -4027,13 +4031,13 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>72</v>
@@ -4047,10 +4051,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4058,10 +4062,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>72</v>
@@ -4073,7 +4077,7 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -4126,13 +4130,13 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>72</v>
@@ -4146,10 +4150,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4157,10 +4161,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -4172,7 +4176,7 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -4225,13 +4229,13 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>72</v>
@@ -4245,10 +4249,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4256,10 +4260,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>72</v>
@@ -4271,7 +4275,7 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -4324,19 +4328,19 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>72</v>
@@ -4344,10 +4348,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4355,7 +4359,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
@@ -4370,13 +4374,13 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4427,10 +4431,10 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
@@ -4442,26 +4446,26 @@
         <v>72</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>72</v>
@@ -4473,16 +4477,16 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -4520,42 +4524,42 @@
         <v>72</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4578,18 +4582,18 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>72</v>
@@ -4607,11 +4611,11 @@
         <v>72</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>72</v>
@@ -4629,7 +4633,7 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -4649,10 +4653,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4675,18 +4679,18 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>72</v>
@@ -4704,11 +4708,11 @@
         <v>72</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>72</v>
@@ -4726,7 +4730,7 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
@@ -4746,10 +4750,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4757,7 +4761,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>73</v>
@@ -4772,7 +4776,7 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -4825,10 +4829,10 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>73</v>
@@ -4845,10 +4849,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4856,7 +4860,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>73</v>
@@ -4871,7 +4875,7 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -4924,10 +4928,10 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>73</v>
@@ -4944,10 +4948,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -4955,10 +4959,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>72</v>
@@ -4970,7 +4974,7 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -5023,13 +5027,13 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>72</v>
@@ -5043,10 +5047,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5054,10 +5058,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>72</v>
@@ -5069,7 +5073,7 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -5122,19 +5126,19 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>72</v>
@@ -5142,10 +5146,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5153,7 +5157,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
@@ -5168,13 +5172,13 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5225,10 +5229,10 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
@@ -5240,26 +5244,26 @@
         <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>72</v>
@@ -5271,16 +5275,16 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -5318,42 +5322,42 @@
         <v>72</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5376,7 +5380,7 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -5429,7 +5433,7 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -5449,10 +5453,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5460,7 +5464,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>73</v>
@@ -5475,7 +5479,7 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -5528,10 +5532,10 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>73</v>
@@ -5548,10 +5552,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5574,14 +5578,14 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
@@ -5627,7 +5631,7 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
@@ -5647,10 +5651,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5658,7 +5662,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
@@ -5673,7 +5677,7 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -5726,10 +5730,10 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>73</v>
@@ -5746,10 +5750,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -5757,7 +5761,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>73</v>
@@ -5772,7 +5776,7 @@
         <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -5825,10 +5829,10 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>73</v>
@@ -5845,10 +5849,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -5856,7 +5860,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -5871,7 +5875,7 @@
         <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -5924,10 +5928,10 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
@@ -5944,10 +5948,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -5955,7 +5959,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>73</v>
@@ -5970,7 +5974,7 @@
         <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -6023,10 +6027,10 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>73</v>
@@ -6043,10 +6047,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6054,7 +6058,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -6069,7 +6073,7 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -6122,10 +6126,10 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
@@ -6142,10 +6146,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6153,7 +6157,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>73</v>
@@ -6168,7 +6172,7 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -6221,10 +6225,10 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>73</v>
@@ -6241,10 +6245,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6252,7 +6256,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -6267,7 +6271,7 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -6320,10 +6324,10 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>73</v>
@@ -6340,10 +6344,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6351,7 +6355,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -6366,7 +6370,7 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -6419,10 +6423,10 @@
         <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
@@ -6439,10 +6443,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6450,7 +6454,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>73</v>
@@ -6465,7 +6469,7 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -6518,10 +6522,10 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>73</v>
@@ -6538,10 +6542,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6549,7 +6553,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>73</v>
@@ -6564,7 +6568,7 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -6617,10 +6621,10 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>73</v>
@@ -6637,10 +6641,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -6648,7 +6652,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>73</v>
@@ -6663,7 +6667,7 @@
         <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -6716,10 +6720,10 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>73</v>
@@ -6736,10 +6740,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -6747,7 +6751,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
@@ -6762,7 +6766,7 @@
         <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -6815,10 +6819,10 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>73</v>
@@ -6835,10 +6839,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -6846,10 +6850,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>72</v>
@@ -6861,7 +6865,7 @@
         <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -6914,19 +6918,19 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>72</v>
@@ -6934,10 +6938,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -6945,7 +6949,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>73</v>
@@ -6960,13 +6964,13 @@
         <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -7017,10 +7021,10 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>73</v>
@@ -7032,26 +7036,26 @@
         <v>72</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>72</v>
@@ -7063,16 +7067,16 @@
         <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -7110,42 +7114,42 @@
         <v>72</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7168,7 +7172,7 @@
         <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -7221,7 +7225,7 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
@@ -7241,10 +7245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7252,7 +7256,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>73</v>
@@ -7267,7 +7271,7 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -7320,10 +7324,10 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>73</v>
@@ -7340,10 +7344,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7351,7 +7355,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>73</v>
@@ -7366,7 +7370,7 @@
         <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -7419,10 +7423,10 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>73</v>
@@ -7439,10 +7443,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -7450,7 +7454,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>73</v>
@@ -7465,7 +7469,7 @@
         <v>72</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -7518,10 +7522,10 @@
         <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>73</v>
@@ -7538,10 +7542,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -7549,7 +7553,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>73</v>
@@ -7564,7 +7568,7 @@
         <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -7617,10 +7621,10 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>73</v>
@@ -7637,10 +7641,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -7648,7 +7652,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>73</v>
@@ -7663,7 +7667,7 @@
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -7716,10 +7720,10 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>73</v>
@@ -7736,10 +7740,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -7747,10 +7751,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>72</v>
@@ -7762,7 +7766,7 @@
         <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -7815,13 +7819,13 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>72</v>

--- a/docs/cda-logical-model/StructureDefinition-Supply.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-Supply.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-sd-202312-matchbox-patch</t>
+    <t>2.0.0-sd-202406-matchbox-patch</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:28:21+01:00</t>
+    <t>2024-06-19T17:47:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 International - Structured Documents (http://www.hl7.org/Special/committees/structure, structdog@lists.HL7.org)</t>
   </si>
   <si>
     <t>Description</t>
